--- a/reference/KK14/Data_comparison/datalist.xlsx
+++ b/reference/KK14/Data_comparison/datalist.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="g_obs" sheetId="1" r:id="rId1"/>
+    <sheet name="tax_rate_table" sheetId="1" r:id="rId1"/>
+    <sheet name="tax_obs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -355,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -372,7 +373,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>value</t>
+          <t>ln_tau_w</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ln_tau_k</t>
         </is>
       </c>
     </row>
@@ -381,7 +387,10 @@
         <v>30317</v>
       </c>
       <c r="B2">
-        <v>0.0004829074011342507</v>
+        <v>-0.07542854899915419</v>
+      </c>
+      <c r="C2">
+        <v>-0.4112631524175878</v>
       </c>
     </row>
     <row r="3">
@@ -389,7 +398,10 @@
         <v>30407</v>
       </c>
       <c r="B3">
-        <v>-0.001121009504690647</v>
+        <v>-0.07880096442049167</v>
+      </c>
+      <c r="C3">
+        <v>-0.3751762000247183</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +409,10 @@
         <v>30498</v>
       </c>
       <c r="B4">
-        <v>0.0004891849066746092</v>
+        <v>-0.08364169665622612</v>
+      </c>
+      <c r="C4">
+        <v>-0.4433809712241557</v>
       </c>
     </row>
     <row r="5">
@@ -405,7 +420,10 @@
         <v>30590</v>
       </c>
       <c r="B5">
-        <v>-0.001191054532271826</v>
+        <v>-0.08741591521768788</v>
+      </c>
+      <c r="C5">
+        <v>-0.4593985548656114</v>
       </c>
     </row>
     <row r="6">
@@ -413,7 +431,10 @@
         <v>30682</v>
       </c>
       <c r="B6">
-        <v>-0.0001742012091705178</v>
+        <v>-0.04834856455597425</v>
+      </c>
+      <c r="C6">
+        <v>-0.4444059847658179</v>
       </c>
     </row>
     <row r="7">
@@ -421,7 +442,10 @@
         <v>30773</v>
       </c>
       <c r="B7">
-        <v>-7.280735820213357e-005</v>
+        <v>-0.05354301920767624</v>
+      </c>
+      <c r="C7">
+        <v>-0.4833434949825515</v>
       </c>
     </row>
     <row r="8">
@@ -429,7 +453,10 @@
         <v>30864</v>
       </c>
       <c r="B8">
-        <v>-0.0006229883897311043</v>
+        <v>-0.05740092716083556</v>
+      </c>
+      <c r="C8">
+        <v>-0.5143194234369348</v>
       </c>
     </row>
     <row r="9">
@@ -437,7 +464,10 @@
         <v>30956</v>
       </c>
       <c r="B9">
-        <v>0.0003354739849901847</v>
+        <v>-0.06042920475349956</v>
+      </c>
+      <c r="C9">
+        <v>-0.4879699837304443</v>
       </c>
     </row>
     <row r="10">
@@ -445,7 +475,10 @@
         <v>31048</v>
       </c>
       <c r="B10">
-        <v>-0.0001854257605590957</v>
+        <v>-0.03380498053116332</v>
+      </c>
+      <c r="C10">
+        <v>-0.4039255251946505</v>
       </c>
     </row>
     <row r="11">
@@ -453,7 +486,10 @@
         <v>31138</v>
       </c>
       <c r="B11">
-        <v>0.0001588388444379121</v>
+        <v>-0.03574414681738425</v>
+      </c>
+      <c r="C11">
+        <v>-0.4798621124058693</v>
       </c>
     </row>
     <row r="12">
@@ -461,7 +497,10 @@
         <v>31229</v>
       </c>
       <c r="B12">
-        <v>-3.585063064956906e-005</v>
+        <v>-0.03650141372404248</v>
+      </c>
+      <c r="C12">
+        <v>-0.3949178434991811</v>
       </c>
     </row>
     <row r="13">
@@ -469,7 +508,10 @@
         <v>31321</v>
       </c>
       <c r="B13">
-        <v>8.99031355449339e-005</v>
+        <v>-0.036515695856282</v>
+      </c>
+      <c r="C13">
+        <v>-0.4027401608953962</v>
       </c>
     </row>
     <row r="14">
@@ -477,7 +519,10 @@
         <v>31413</v>
       </c>
       <c r="B14">
-        <v>-0.0007210770790772223</v>
+        <v>-0.01878031288240356</v>
+      </c>
+      <c r="C14">
+        <v>-0.4380535369352758</v>
       </c>
     </row>
     <row r="15">
@@ -485,7 +530,10 @@
         <v>31503</v>
       </c>
       <c r="B15">
-        <v>0.0001759595543223088</v>
+        <v>-0.02049466568273983</v>
+      </c>
+      <c r="C15">
+        <v>-0.4307220409137322</v>
       </c>
     </row>
     <row r="16">
@@ -493,7 +541,10 @@
         <v>31594</v>
       </c>
       <c r="B16">
-        <v>0.0009703028999563609</v>
+        <v>-0.02286149737431309</v>
+      </c>
+      <c r="C16">
+        <v>-0.4077361551262326</v>
       </c>
     </row>
     <row r="17">
@@ -501,7 +552,10 @@
         <v>31686</v>
       </c>
       <c r="B17">
-        <v>-0.0009637885690380508</v>
+        <v>-0.02487442813129626</v>
+      </c>
+      <c r="C17">
+        <v>-0.3500272547005077</v>
       </c>
     </row>
     <row r="18">
@@ -509,7 +563,10 @@
         <v>31778</v>
       </c>
       <c r="B18">
-        <v>3.470935187421332e-005</v>
+        <v>-0.02367854769823152</v>
+      </c>
+      <c r="C18">
+        <v>-0.3432687465635826</v>
       </c>
     </row>
     <row r="19">
@@ -517,7 +574,10 @@
         <v>31868</v>
       </c>
       <c r="B19">
-        <v>-0.0001516072435401215</v>
+        <v>-0.0272834512606126</v>
+      </c>
+      <c r="C19">
+        <v>-0.249894008908746</v>
       </c>
     </row>
     <row r="20">
@@ -525,7 +585,10 @@
         <v>31959</v>
       </c>
       <c r="B20">
-        <v>-0.0005157816474572106</v>
+        <v>-0.03271663609061948</v>
+      </c>
+      <c r="C20">
+        <v>-0.279503749008696</v>
       </c>
     </row>
     <row r="21">
@@ -533,7 +596,10 @@
         <v>32051</v>
       </c>
       <c r="B21">
-        <v>-0.0001864949279669951</v>
+        <v>-0.0369010751625769</v>
+      </c>
+      <c r="C21">
+        <v>-0.2733172733833689</v>
       </c>
     </row>
     <row r="22">
@@ -541,7 +607,10 @@
         <v>32143</v>
       </c>
       <c r="B22">
-        <v>-0.0008684010884908076</v>
+        <v>0.004103955257422243</v>
+      </c>
+      <c r="C22">
+        <v>-0.3070950905194669</v>
       </c>
     </row>
     <row r="23">
@@ -549,7 +618,10 @@
         <v>32234</v>
       </c>
       <c r="B23">
-        <v>-0.0007060208027671786</v>
+        <v>0.001673451952734162</v>
+      </c>
+      <c r="C23">
+        <v>-0.290709431572985</v>
       </c>
     </row>
     <row r="24">
@@ -557,7 +629,10 @@
         <v>32325</v>
       </c>
       <c r="B24">
-        <v>-0.001347693088557608</v>
+        <v>-0.001177369500794168</v>
+      </c>
+      <c r="C24">
+        <v>-0.3074842914478984</v>
       </c>
     </row>
     <row r="25">
@@ -565,7 +640,10 @@
         <v>32417</v>
       </c>
       <c r="B25">
-        <v>0.0001087923477517496</v>
+        <v>-0.00104205356274889</v>
+      </c>
+      <c r="C25">
+        <v>-0.3215004355270921</v>
       </c>
     </row>
     <row r="26">
@@ -573,7 +651,10 @@
         <v>32509</v>
       </c>
       <c r="B26">
-        <v>-0.0007539240904371101</v>
+        <v>0.007719889493835286</v>
+      </c>
+      <c r="C26">
+        <v>-0.3172654647969813</v>
       </c>
     </row>
     <row r="27">
@@ -581,7 +662,10 @@
         <v>32599</v>
       </c>
       <c r="B27">
-        <v>-0.0003106629703026379</v>
+        <v>0.007812246136265078</v>
+      </c>
+      <c r="C27">
+        <v>-0.3376592040508566</v>
       </c>
     </row>
     <row r="28">
@@ -589,7 +673,10 @@
         <v>32690</v>
       </c>
       <c r="B28">
-        <v>-6.111994835448142e-005</v>
+        <v>0.005502686333183959</v>
+      </c>
+      <c r="C28">
+        <v>-0.342012310069741</v>
       </c>
     </row>
     <row r="29">
@@ -597,7 +684,10 @@
         <v>32782</v>
       </c>
       <c r="B29">
-        <v>-0.0004507512094850444</v>
+        <v>0.004061584650030703</v>
+      </c>
+      <c r="C29">
+        <v>-0.3164709468032587</v>
       </c>
     </row>
     <row r="30">
@@ -605,7 +695,10 @@
         <v>32874</v>
       </c>
       <c r="B30">
-        <v>-0.0007387426075758144</v>
+        <v>0.01487915658032657</v>
+      </c>
+      <c r="C30">
+        <v>-0.3300944623691668</v>
       </c>
     </row>
     <row r="31">
@@ -613,7 +706,10 @@
         <v>32964</v>
       </c>
       <c r="B31">
-        <v>-0.0005611197532916132</v>
+        <v>0.007621725111304212</v>
+      </c>
+      <c r="C31">
+        <v>-0.3033239299981414</v>
       </c>
     </row>
     <row r="32">
@@ -621,7 +717,10 @@
         <v>33055</v>
       </c>
       <c r="B32">
-        <v>-0.0005278957018050776</v>
+        <v>0.009043951905221892</v>
+      </c>
+      <c r="C32">
+        <v>-0.2808785325172973</v>
       </c>
     </row>
     <row r="33">
@@ -629,7 +728,10 @@
         <v>33147</v>
       </c>
       <c r="B33">
-        <v>0.0001306575644894844</v>
+        <v>0.004800950837251961</v>
+      </c>
+      <c r="C33">
+        <v>-0.2937054051313526</v>
       </c>
     </row>
     <row r="34">
@@ -637,7 +739,10 @@
         <v>33239</v>
       </c>
       <c r="B34">
-        <v>-0.0001629647686021605</v>
+        <v>0.02652179902835616</v>
+      </c>
+      <c r="C34">
+        <v>-0.2522969903805228</v>
       </c>
     </row>
     <row r="35">
@@ -645,7 +750,10 @@
         <v>33329</v>
       </c>
       <c r="B35">
-        <v>-0.0001865248580557775</v>
+        <v>0.02307301157421993</v>
+      </c>
+      <c r="C35">
+        <v>-0.2169686136854772</v>
       </c>
     </row>
     <row r="36">
@@ -653,7 +761,10 @@
         <v>33420</v>
       </c>
       <c r="B36">
-        <v>-0.0005577780346036807</v>
+        <v>0.02364682820663244</v>
+      </c>
+      <c r="C36">
+        <v>-0.2012233883576959</v>
       </c>
     </row>
     <row r="37">
@@ -661,7 +772,10 @@
         <v>33512</v>
       </c>
       <c r="B37">
-        <v>-0.0004328269940499416</v>
+        <v>0.01943584275877974</v>
+      </c>
+      <c r="C37">
+        <v>-0.1479163666653678</v>
       </c>
     </row>
     <row r="38">
@@ -669,7 +783,10 @@
         <v>33604</v>
       </c>
       <c r="B38">
-        <v>0.0002870335924264702</v>
+        <v>0.0274224318656775</v>
+      </c>
+      <c r="C38">
+        <v>-0.1328433544022012</v>
       </c>
     </row>
     <row r="39">
@@ -677,7 +794,10 @@
         <v>33695</v>
       </c>
       <c r="B39">
-        <v>-2.933054024433423e-005</v>
+        <v>0.0228865825729212</v>
+      </c>
+      <c r="C39">
+        <v>-0.1083714231993849</v>
       </c>
     </row>
     <row r="40">
@@ -685,7 +805,10 @@
         <v>33786</v>
       </c>
       <c r="B40">
-        <v>0.0002595505809870288</v>
+        <v>0.01905860287982986</v>
+      </c>
+      <c r="C40">
+        <v>-0.08313632224865586</v>
       </c>
     </row>
     <row r="41">
@@ -693,7 +816,10 @@
         <v>33878</v>
       </c>
       <c r="B41">
-        <v>-0.0003262921923002696</v>
+        <v>0.01165397959548509</v>
+      </c>
+      <c r="C41">
+        <v>-0.05921940371846635</v>
       </c>
     </row>
     <row r="42">
@@ -701,7 +827,10 @@
         <v>33970</v>
       </c>
       <c r="B42">
-        <v>-0.0005477537654506224</v>
+        <v>0.01811656883291102</v>
+      </c>
+      <c r="C42">
+        <v>-0.07475509801766833</v>
       </c>
     </row>
     <row r="43">
@@ -709,7 +838,10 @@
         <v>34060</v>
       </c>
       <c r="B43">
-        <v>-0.0002423971038869092</v>
+        <v>0.02281917750448725</v>
+      </c>
+      <c r="C43">
+        <v>-0.01326418530944373</v>
       </c>
     </row>
     <row r="44">
@@ -717,7 +849,10 @@
         <v>34151</v>
       </c>
       <c r="B44">
-        <v>-7.410340202715837e-005</v>
+        <v>0.02264499226582206</v>
+      </c>
+      <c r="C44">
+        <v>0.01340746466577691</v>
       </c>
     </row>
     <row r="45">
@@ -725,7 +860,10 @@
         <v>34243</v>
       </c>
       <c r="B45">
-        <v>3.911005641236498e-005</v>
+        <v>0.02488658737685734</v>
+      </c>
+      <c r="C45">
+        <v>0.08750285383358936</v>
       </c>
     </row>
     <row r="46">
@@ -733,7 +871,10 @@
         <v>34335</v>
       </c>
       <c r="B46">
-        <v>-0.0005548972574262782</v>
+        <v>0.03136251240075216</v>
+      </c>
+      <c r="C46">
+        <v>0.07186500547826302</v>
       </c>
     </row>
     <row r="47">
@@ -741,7 +882,10 @@
         <v>34425</v>
       </c>
       <c r="B47">
-        <v>8.762560162553024e-005</v>
+        <v>0.03512514765517683</v>
+      </c>
+      <c r="C47">
+        <v>0.1126659476391554</v>
       </c>
     </row>
     <row r="48">
@@ -749,7 +893,10 @@
         <v>34516</v>
       </c>
       <c r="B48">
-        <v>0.0004851429245174934</v>
+        <v>0.03447947591948974</v>
+      </c>
+      <c r="C48">
+        <v>0.1115329610482858</v>
       </c>
     </row>
     <row r="49">
@@ -757,7 +904,10 @@
         <v>34608</v>
       </c>
       <c r="B49">
-        <v>-0.0005016378725868956</v>
+        <v>0.03388526364338684</v>
+      </c>
+      <c r="C49">
+        <v>0.09326798171658712</v>
       </c>
     </row>
     <row r="50">
@@ -765,7 +915,10 @@
         <v>34700</v>
       </c>
       <c r="B50">
-        <v>0.0002091499501544144</v>
+        <v>0.03632215425136165</v>
+      </c>
+      <c r="C50">
+        <v>0.1014968153032472</v>
       </c>
     </row>
     <row r="51">
@@ -773,7 +926,10 @@
         <v>34790</v>
       </c>
       <c r="B51">
-        <v>-7.463311873078448e-005</v>
+        <v>0.03723173097468413</v>
+      </c>
+      <c r="C51">
+        <v>0.1411427762841564</v>
       </c>
     </row>
     <row r="52">
@@ -781,7 +937,10 @@
         <v>34881</v>
       </c>
       <c r="B52">
-        <v>-0.0008331115784583807</v>
+        <v>0.03635738721793702</v>
+      </c>
+      <c r="C52">
+        <v>0.1537821745435615</v>
       </c>
     </row>
     <row r="53">
@@ -789,7 +948,10 @@
         <v>34973</v>
       </c>
       <c r="B53">
-        <v>0.0006085925098831498</v>
+        <v>0.03505475921398116</v>
+      </c>
+      <c r="C53">
+        <v>0.1727860664144441</v>
       </c>
     </row>
     <row r="54">
@@ -797,7 +959,10 @@
         <v>35065</v>
       </c>
       <c r="B54">
-        <v>0.000641019494905313</v>
+        <v>0.03337173305232977</v>
+      </c>
+      <c r="C54">
+        <v>0.2097086149952334</v>
       </c>
     </row>
     <row r="55">
@@ -805,7 +970,10 @@
         <v>35156</v>
       </c>
       <c r="B55">
-        <v>0.0002322990282337353</v>
+        <v>0.03142062228873499</v>
+      </c>
+      <c r="C55">
+        <v>0.2409839937197482</v>
       </c>
     </row>
     <row r="56">
@@ -813,7 +981,10 @@
         <v>35247</v>
       </c>
       <c r="B56">
-        <v>-0.000191464750287603</v>
+        <v>0.03127951830773146</v>
+      </c>
+      <c r="C56">
+        <v>0.2298061889870926</v>
       </c>
     </row>
     <row r="57">
@@ -821,7 +992,10 @@
         <v>35339</v>
       </c>
       <c r="B57">
-        <v>-0.0003522635186743776</v>
+        <v>0.03078149685312948</v>
+      </c>
+      <c r="C57">
+        <v>0.2227692844008979</v>
       </c>
     </row>
     <row r="58">
@@ -829,7 +1003,10 @@
         <v>35431</v>
       </c>
       <c r="B58">
-        <v>0.0002798058092570257</v>
+        <v>0.03322482988837683</v>
+      </c>
+      <c r="C58">
+        <v>0.235466653472904</v>
       </c>
     </row>
     <row r="59">
@@ -837,7 +1014,10 @@
         <v>35521</v>
       </c>
       <c r="B59">
-        <v>-0.0004202670261128686</v>
+        <v>0.03271951340542412</v>
+      </c>
+      <c r="C59">
+        <v>0.2335423944087625</v>
       </c>
     </row>
     <row r="60">
@@ -845,7 +1025,10 @@
         <v>35612</v>
       </c>
       <c r="B60">
-        <v>0.000951051562255121</v>
+        <v>0.03039243363973254</v>
+      </c>
+      <c r="C60">
+        <v>0.2426437226875509</v>
       </c>
     </row>
     <row r="61">
@@ -853,7 +1036,10 @@
         <v>35704</v>
       </c>
       <c r="B61">
-        <v>0.0002091909488791351</v>
+        <v>0.02859043246803017</v>
+      </c>
+      <c r="C61">
+        <v>0.2221349848337892</v>
       </c>
     </row>
     <row r="62">
@@ -861,7 +1047,10 @@
         <v>35796</v>
       </c>
       <c r="B62">
-        <v>-9.773268329410978e-005</v>
+        <v>0.02372626256280563</v>
+      </c>
+      <c r="C62">
+        <v>0.1678173015787872</v>
       </c>
     </row>
     <row r="63">
@@ -869,7 +1058,10 @@
         <v>35886</v>
       </c>
       <c r="B63">
-        <v>0.0004771199857818383</v>
+        <v>0.02060820608842784</v>
+      </c>
+      <c r="C63">
+        <v>0.1454920177692509</v>
       </c>
     </row>
     <row r="64">
@@ -877,7 +1069,10 @@
         <v>35977</v>
       </c>
       <c r="B64">
-        <v>0.0002192095225659976</v>
+        <v>0.01793419243955619</v>
+      </c>
+      <c r="C64">
+        <v>0.1502245401050271</v>
       </c>
     </row>
     <row r="65">
@@ -885,7 +1080,10 @@
         <v>36069</v>
       </c>
       <c r="B65">
-        <v>0.0004352608099382573</v>
+        <v>0.01526400593496247</v>
+      </c>
+      <c r="C65">
+        <v>0.1824179512039308</v>
       </c>
     </row>
     <row r="66">
@@ -893,7 +1091,10 @@
         <v>36161</v>
       </c>
       <c r="B66">
-        <v>0.0002593076816200892</v>
+        <v>0.02074122804270129</v>
+      </c>
+      <c r="C66">
+        <v>0.2135660686103531</v>
       </c>
     </row>
     <row r="67">
@@ -901,7 +1102,10 @@
         <v>36251</v>
       </c>
       <c r="B67">
-        <v>0.0001748372809446349</v>
+        <v>0.01748162319869451</v>
+      </c>
+      <c r="C67">
+        <v>0.2206167756474953</v>
       </c>
     </row>
     <row r="68">
@@ -909,7 +1113,10 @@
         <v>36342</v>
       </c>
       <c r="B68">
-        <v>0.0005517637330769523</v>
+        <v>0.01255396646166851</v>
+      </c>
+      <c r="C68">
+        <v>0.2141823175398745</v>
       </c>
     </row>
     <row r="69">
@@ -917,7 +1124,10 @@
         <v>36434</v>
       </c>
       <c r="B69">
-        <v>0.0004351205391798182</v>
+        <v>0.006693182577955703</v>
+      </c>
+      <c r="C69">
+        <v>0.1969467124856452</v>
       </c>
     </row>
     <row r="70">
@@ -925,7 +1135,10 @@
         <v>36526</v>
       </c>
       <c r="B70">
-        <v>-0.001276187883222817</v>
+        <v>0.007140340028842562</v>
+      </c>
+      <c r="C70">
+        <v>0.1692137495394865</v>
       </c>
     </row>
     <row r="71">
@@ -933,7 +1146,10 @@
         <v>36617</v>
       </c>
       <c r="B71">
-        <v>0.0004762276499497794</v>
+        <v>-0.0008468070595384347</v>
+      </c>
+      <c r="C71">
+        <v>0.1390582689653765</v>
       </c>
     </row>
     <row r="72">
@@ -941,7 +1157,10 @@
         <v>36708</v>
       </c>
       <c r="B72">
-        <v>-0.0001000729082233968</v>
+        <v>-0.003112985596039675</v>
+      </c>
+      <c r="C72">
+        <v>0.1319333643141842</v>
       </c>
     </row>
     <row r="73">
@@ -949,7 +1168,10 @@
         <v>36800</v>
       </c>
       <c r="B73">
-        <v>1.615031632188702e-005</v>
+        <v>-0.004791492300737055</v>
+      </c>
+      <c r="C73">
+        <v>0.1431847383238516</v>
       </c>
     </row>
     <row r="74">
@@ -957,7 +1179,10 @@
         <v>36892</v>
       </c>
       <c r="B74">
-        <v>0.000284594191470098</v>
+        <v>0.002577010271534785</v>
+      </c>
+      <c r="C74">
+        <v>0.1305605702364305</v>
       </c>
     </row>
     <row r="75">
@@ -965,7 +1190,10 @@
         <v>36982</v>
       </c>
       <c r="B75">
-        <v>0.0003412769707224991</v>
+        <v>0.001659316653075393</v>
+      </c>
+      <c r="C75">
+        <v>0.137774253182851</v>
       </c>
     </row>
     <row r="76">
@@ -973,7 +1201,10 @@
         <v>37073</v>
       </c>
       <c r="B76">
-        <v>0.0004486334969598751</v>
+        <v>-0.00306139120010096</v>
+      </c>
+      <c r="C76">
+        <v>0.03753280853698993</v>
       </c>
     </row>
     <row r="77">
@@ -981,7 +1212,10 @@
         <v>37165</v>
       </c>
       <c r="B77">
-        <v>0.0003787185101320847</v>
+        <v>-0.002056140498057246</v>
+      </c>
+      <c r="C77">
+        <v>0.1617134266273475</v>
       </c>
     </row>
     <row r="78">
@@ -989,7 +1223,10 @@
         <v>37257</v>
       </c>
       <c r="B78">
-        <v>0.0009129850760908561</v>
+        <v>0.005944191503925111</v>
+      </c>
+      <c r="C78">
+        <v>0.1147439536171104</v>
       </c>
     </row>
     <row r="79">
@@ -997,7 +1234,10 @@
         <v>37347</v>
       </c>
       <c r="B79">
-        <v>0.0005064640807953083</v>
+        <v>0.002905138616093428</v>
+      </c>
+      <c r="C79">
+        <v>0.1338376727003476</v>
       </c>
     </row>
     <row r="80">
@@ -1005,7 +1245,10 @@
         <v>37438</v>
       </c>
       <c r="B80">
-        <v>0.00034960658953156</v>
+        <v>-0.00163540624460623</v>
+      </c>
+      <c r="C80">
+        <v>0.1839881993145864</v>
       </c>
     </row>
     <row r="81">
@@ -1013,7 +1256,10 @@
         <v>37530</v>
       </c>
       <c r="B81">
-        <v>0.0003718550434712539</v>
+        <v>-0.0085762669169136</v>
+      </c>
+      <c r="C81">
+        <v>0.1934977110528884</v>
       </c>
     </row>
     <row r="82">
@@ -1021,7 +1267,10 @@
         <v>37622</v>
       </c>
       <c r="B82">
-        <v>9.508310044794655e-005</v>
+        <v>-0.005612008756811893</v>
+      </c>
+      <c r="C82">
+        <v>0.1588061874679863</v>
       </c>
     </row>
     <row r="83">
@@ -1029,7 +1278,10 @@
         <v>37712</v>
       </c>
       <c r="B83">
-        <v>0.0008930624862780409</v>
+        <v>-0.01108716288364597</v>
+      </c>
+      <c r="C83">
+        <v>0.2090952448769619</v>
       </c>
     </row>
     <row r="84">
@@ -1037,7 +1289,10 @@
         <v>37803</v>
       </c>
       <c r="B84">
-        <v>0.0001429570215361977</v>
+        <v>-0.01742524150894731</v>
+      </c>
+      <c r="C84">
+        <v>0.192595848152135</v>
       </c>
     </row>
     <row r="85">
@@ -1045,7 +1300,10 @@
         <v>37895</v>
       </c>
       <c r="B85">
-        <v>8.695542928453337e-005</v>
+        <v>-0.01525034543992332</v>
+      </c>
+      <c r="C85">
+        <v>0.3378475427032628</v>
       </c>
     </row>
     <row r="86">
@@ -1053,7 +1311,10 @@
         <v>37987</v>
       </c>
       <c r="B86">
-        <v>0.0005901594819282909</v>
+        <v>0.002315772320737874</v>
+      </c>
+      <c r="C86">
+        <v>0.4284526244961198</v>
       </c>
     </row>
     <row r="87">
@@ -1061,7 +1322,10 @@
         <v>38078</v>
       </c>
       <c r="B87">
-        <v>7.713705855380082e-005</v>
+        <v>-0.002274230746537764</v>
+      </c>
+      <c r="C87">
+        <v>0.4527790837020618</v>
       </c>
     </row>
     <row r="88">
@@ -1069,7 +1333,10 @@
         <v>38169</v>
       </c>
       <c r="B88">
-        <v>0.0002861762597867004</v>
+        <v>-0.005117512645154587</v>
+      </c>
+      <c r="C88">
+        <v>0.489443835544404</v>
       </c>
     </row>
     <row r="89">
@@ -1077,7 +1344,10 @@
         <v>38261</v>
       </c>
       <c r="B89">
-        <v>-0.0002258134206668447</v>
+        <v>-0.00758329049169193</v>
+      </c>
+      <c r="C89">
+        <v>0.4657087401820945</v>
       </c>
     </row>
     <row r="90">
@@ -1085,7 +1355,10 @@
         <v>38353</v>
       </c>
       <c r="B90">
-        <v>0.0003265703414019696</v>
+        <v>0.003950744615235369</v>
+      </c>
+      <c r="C90">
+        <v>0.4553397960768519</v>
       </c>
     </row>
     <row r="91">
@@ -1093,7 +1366,10 @@
         <v>38443</v>
       </c>
       <c r="B91">
-        <v>3.648365684442512e-005</v>
+        <v>-0.002478930717507044</v>
+      </c>
+      <c r="C91">
+        <v>0.406505910900492</v>
       </c>
     </row>
     <row r="92">
@@ -1101,7 +1377,10 @@
         <v>38534</v>
       </c>
       <c r="B92">
-        <v>0.0001286972992768872</v>
+        <v>-0.004959605718587223</v>
+      </c>
+      <c r="C92">
+        <v>0.3872295659016762</v>
       </c>
     </row>
     <row r="93">
@@ -1109,7 +1388,10 @@
         <v>38626</v>
       </c>
       <c r="B93">
-        <v>-0.000248445430600657</v>
+        <v>-0.009153307057048199</v>
+      </c>
+      <c r="C93">
+        <v>0.3459633140086353</v>
       </c>
     </row>
     <row r="94">
@@ -1117,7 +1399,10 @@
         <v>38718</v>
       </c>
       <c r="B94">
-        <v>0.0006024131622431408</v>
+        <v>0.005765530686679732</v>
+      </c>
+      <c r="C94">
+        <v>0.3616199330967636</v>
       </c>
     </row>
     <row r="95">
@@ -1125,7 +1410,10 @@
         <v>38808</v>
       </c>
       <c r="B95">
-        <v>-0.0001147230070743847</v>
+        <v>-0.0004827133163236574</v>
+      </c>
+      <c r="C95">
+        <v>0.3143765220092698</v>
       </c>
     </row>
     <row r="96">
@@ -1133,7 +1421,10 @@
         <v>38899</v>
       </c>
       <c r="B96">
-        <v>1.332652381194144e-005</v>
+        <v>-0.003479577826471125</v>
+      </c>
+      <c r="C96">
+        <v>0.3383849383131139</v>
       </c>
     </row>
     <row r="97">
@@ -1141,7 +1432,10 @@
         <v>38991</v>
       </c>
       <c r="B97">
-        <v>-0.0003886102315503507</v>
+        <v>-0.00883740306208658</v>
+      </c>
+      <c r="C97">
+        <v>0.3357460582169081</v>
       </c>
     </row>
     <row r="98">
@@ -1149,7 +1443,10 @@
         <v>39083</v>
       </c>
       <c r="B98">
-        <v>0.0004302126671258629</v>
+        <v>0.002530736825445246</v>
+      </c>
+      <c r="C98">
+        <v>0.3189164962710818</v>
       </c>
     </row>
     <row r="99">
@@ -1157,7 +1454,10 @@
         <v>39173</v>
       </c>
       <c r="B99">
-        <v>0.0003237961179726697</v>
+        <v>-0.002578956859971449</v>
+      </c>
+      <c r="C99">
+        <v>0.2638577311287609</v>
       </c>
     </row>
     <row r="100">
@@ -1165,7 +1465,10 @@
         <v>39264</v>
       </c>
       <c r="B100">
-        <v>0.0005096446149969549</v>
+        <v>-0.003690083566430857</v>
+      </c>
+      <c r="C100">
+        <v>0.2225106271232624</v>
       </c>
     </row>
     <row r="101">
@@ -1173,7 +1476,10 @@
         <v>39356</v>
       </c>
       <c r="B101">
-        <v>0.0002087451822515387</v>
+        <v>-0.004152315214967395</v>
+      </c>
+      <c r="C101">
+        <v>0.2234900163274984</v>
       </c>
     </row>
     <row r="102">
@@ -1181,7 +1487,10 @@
         <v>39448</v>
       </c>
       <c r="B102">
-        <v>0.0007697033677624096</v>
+        <v>-0.0001638910762342682</v>
+      </c>
+      <c r="C102">
+        <v>0.197589156830416</v>
       </c>
     </row>
     <row r="103">
@@ -1189,7 +1498,10 @@
         <v>39539</v>
       </c>
       <c r="B103">
-        <v>0.000302325211039354</v>
+        <v>-0.003899051433505552</v>
+      </c>
+      <c r="C103">
+        <v>0.04100839761468134</v>
       </c>
     </row>
     <row r="104">
@@ -1197,7 +1509,862 @@
         <v>39630</v>
       </c>
       <c r="B104">
-        <v>0.0004793679477442269</v>
+        <v>-0.001085229343576799</v>
+      </c>
+      <c r="C104">
+        <v>0.09934496704285056</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B104"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ln_taxrev</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <v>30317</v>
+      </c>
+      <c r="B2">
+        <v>-0.003874745775007091</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>30407</v>
+      </c>
+      <c r="B3">
+        <v>0.01937110652028033</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>30498</v>
+      </c>
+      <c r="B4">
+        <v>-0.026195920669246</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>30590</v>
+      </c>
+      <c r="B5">
+        <v>0.009481308676961987</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>30682</v>
+      </c>
+      <c r="B6">
+        <v>0.03039141550992245</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>30773</v>
+      </c>
+      <c r="B7">
+        <v>0.001062666325474617</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>30864</v>
+      </c>
+      <c r="B8">
+        <v>-0.004046103309781688</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <v>30956</v>
+      </c>
+      <c r="B9">
+        <v>0.006991985361264477</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <v>31048</v>
+      </c>
+      <c r="B10">
+        <v>0.05284518293075827</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>31138</v>
+      </c>
+      <c r="B11">
+        <v>-0.06600831443256346</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <v>31229</v>
+      </c>
+      <c r="B12">
+        <v>0.03955730305987141</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2">
+        <v>31321</v>
+      </c>
+      <c r="B13">
+        <v>-0.0001745507304996207</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2">
+        <v>31413</v>
+      </c>
+      <c r="B14">
+        <v>0.001073350500458905</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2">
+        <v>31503</v>
+      </c>
+      <c r="B15">
+        <v>-0.002712649930592579</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2">
+        <v>31594</v>
+      </c>
+      <c r="B16">
+        <v>0.004624457260216688</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2">
+        <v>31686</v>
+      </c>
+      <c r="B17">
+        <v>0.01835529750579271</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2">
+        <v>31778</v>
+      </c>
+      <c r="B18">
+        <v>-0.007551845907721364</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2">
+        <v>31868</v>
+      </c>
+      <c r="B19">
+        <v>0.06121256896500352</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2">
+        <v>31959</v>
+      </c>
+      <c r="B20">
+        <v>-0.01990412054891418</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2">
+        <v>32051</v>
+      </c>
+      <c r="B21">
+        <v>0.004382028844691335</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2">
+        <v>32143</v>
+      </c>
+      <c r="B22">
+        <v>-0.00259015063622877</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2">
+        <v>32234</v>
+      </c>
+      <c r="B23">
+        <v>-0.004448075248747538</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2">
+        <v>32325</v>
+      </c>
+      <c r="B24">
+        <v>-0.001232953448247662</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2">
+        <v>32417</v>
+      </c>
+      <c r="B25">
+        <v>0.005212523297691321</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2">
+        <v>32509</v>
+      </c>
+      <c r="B26">
+        <v>0.02761677000451283</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2">
+        <v>32599</v>
+      </c>
+      <c r="B27">
+        <v>-0.01274671024140458</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2">
+        <v>32690</v>
+      </c>
+      <c r="B28">
+        <v>-0.004071695420810726</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2">
+        <v>32782</v>
+      </c>
+      <c r="B29">
+        <v>0.002937469749785184</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2">
+        <v>32874</v>
+      </c>
+      <c r="B30">
+        <v>-0.0147802602850103</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2">
+        <v>32964</v>
+      </c>
+      <c r="B31">
+        <v>-0.0004345671207944468</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2">
+        <v>33055</v>
+      </c>
+      <c r="B32">
+        <v>-0.000773469822083892</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2">
+        <v>33147</v>
+      </c>
+      <c r="B33">
+        <v>-0.01521963317807747</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2">
+        <v>33239</v>
+      </c>
+      <c r="B34">
+        <v>-0.02425377807952408</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2">
+        <v>33329</v>
+      </c>
+      <c r="B35">
+        <v>-0.0111039391745796</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2">
+        <v>33420</v>
+      </c>
+      <c r="B36">
+        <v>-0.005866454222309545</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2">
+        <v>33512</v>
+      </c>
+      <c r="B37">
+        <v>-0.003464686636200329</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2">
+        <v>33604</v>
+      </c>
+      <c r="B38">
+        <v>0.001232835174772498</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2">
+        <v>33695</v>
+      </c>
+      <c r="B39">
+        <v>0.0008252357385620046</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2">
+        <v>33786</v>
+      </c>
+      <c r="B40">
+        <v>-0.004380782144881432</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2">
+        <v>33878</v>
+      </c>
+      <c r="B41">
+        <v>0.008666806486548197</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2">
+        <v>33970</v>
+      </c>
+      <c r="B42">
+        <v>-0.01920995547834522</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2">
+        <v>34060</v>
+      </c>
+      <c r="B43">
+        <v>0.02144243687493989</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2">
+        <v>34151</v>
+      </c>
+      <c r="B44">
+        <v>-0.004845605060740463</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2">
+        <v>34243</v>
+      </c>
+      <c r="B45">
+        <v>0.02302968346753268</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2">
+        <v>34335</v>
+      </c>
+      <c r="B46">
+        <v>-0.01369661925392659</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2">
+        <v>34425</v>
+      </c>
+      <c r="B47">
+        <v>0.02283071748647651</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2">
+        <v>34516</v>
+      </c>
+      <c r="B48">
+        <v>-0.006347001513104931</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2">
+        <v>34608</v>
+      </c>
+      <c r="B49">
+        <v>0.006214716404724965</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2">
+        <v>34700</v>
+      </c>
+      <c r="B50">
+        <v>0.004765643889582152</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2">
+        <v>34790</v>
+      </c>
+      <c r="B51">
+        <v>0.009064392835489134</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2">
+        <v>34881</v>
+      </c>
+      <c r="B52">
+        <v>-0.005319813892737133</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2">
+        <v>34973</v>
+      </c>
+      <c r="B53">
+        <v>0.0006566051989664113</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2">
+        <v>35065</v>
+      </c>
+      <c r="B54">
+        <v>0.01343210463507264</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2">
+        <v>35156</v>
+      </c>
+      <c r="B55">
+        <v>0.02487161681062681</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2">
+        <v>35247</v>
+      </c>
+      <c r="B56">
+        <v>-0.005812961085385946</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2">
+        <v>35339</v>
+      </c>
+      <c r="B57">
+        <v>0.005110586265713182</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2">
+        <v>35431</v>
+      </c>
+      <c r="B58">
+        <v>0.01556391610259637</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2">
+        <v>35521</v>
+      </c>
+      <c r="B59">
+        <v>0.004499590073086126</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2">
+        <v>35612</v>
+      </c>
+      <c r="B60">
+        <v>0.01156766577515548</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2">
+        <v>35704</v>
+      </c>
+      <c r="B61">
+        <v>0.003290974857373432</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2">
+        <v>35796</v>
+      </c>
+      <c r="B62">
+        <v>0.01144040027344776</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2">
+        <v>35886</v>
+      </c>
+      <c r="B63">
+        <v>0.0047638937682312</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2">
+        <v>35977</v>
+      </c>
+      <c r="B64">
+        <v>0.007910781083065789</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2">
+        <v>36069</v>
+      </c>
+      <c r="B65">
+        <v>0.003834837669710969</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2">
+        <v>36161</v>
+      </c>
+      <c r="B66">
+        <v>0.006261660862664145</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2">
+        <v>36251</v>
+      </c>
+      <c r="B67">
+        <v>-0.0006061589850093396</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2">
+        <v>36342</v>
+      </c>
+      <c r="B68">
+        <v>0.004101891072380384</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2">
+        <v>36434</v>
+      </c>
+      <c r="B69">
+        <v>0.01022270271533424</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2">
+        <v>36526</v>
+      </c>
+      <c r="B70">
+        <v>0.01241550369132197</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2">
+        <v>36617</v>
+      </c>
+      <c r="B71">
+        <v>-0.007652236769916185</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2">
+        <v>36708</v>
+      </c>
+      <c r="B72">
+        <v>-0.003243622474808769</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2">
+        <v>36800</v>
+      </c>
+      <c r="B73">
+        <v>-0.003135506957379373</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2">
+        <v>36892</v>
+      </c>
+      <c r="B74">
+        <v>-0.004948474095278175</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2">
+        <v>36982</v>
+      </c>
+      <c r="B75">
+        <v>-0.01855419972138502</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2">
+        <v>37073</v>
+      </c>
+      <c r="B76">
+        <v>-0.09873942339630289</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2">
+        <v>37165</v>
+      </c>
+      <c r="B77">
+        <v>0.04059592223936962</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2">
+        <v>37257</v>
+      </c>
+      <c r="B78">
+        <v>-0.07328190112867523</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2">
+        <v>37347</v>
+      </c>
+      <c r="B79">
+        <v>-0.01028214740042607</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2">
+        <v>37438</v>
+      </c>
+      <c r="B80">
+        <v>-0.01339399998471465</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2">
+        <v>37530</v>
+      </c>
+      <c r="B81">
+        <v>-0.00733197020050754</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2">
+        <v>37622</v>
+      </c>
+      <c r="B82">
+        <v>-0.005831776207914827</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2">
+        <v>37712</v>
+      </c>
+      <c r="B83">
+        <v>-0.003487606923886797</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2">
+        <v>37803</v>
+      </c>
+      <c r="B84">
+        <v>-0.04751766898410311</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2">
+        <v>37895</v>
+      </c>
+      <c r="B85">
+        <v>0.03446366971899254</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2">
+        <v>37987</v>
+      </c>
+      <c r="B86">
+        <v>-0.001752838746858241</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2">
+        <v>38078</v>
+      </c>
+      <c r="B87">
+        <v>0.007666770877822118</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2">
+        <v>38169</v>
+      </c>
+      <c r="B88">
+        <v>0.01266454711779522</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2">
+        <v>38261</v>
+      </c>
+      <c r="B89">
+        <v>-0.0005384287315240632</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2">
+        <v>38353</v>
+      </c>
+      <c r="B90">
+        <v>0.0515130454928571</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2">
+        <v>38443</v>
+      </c>
+      <c r="B91">
+        <v>-0.003677856992489867</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2">
+        <v>38534</v>
+      </c>
+      <c r="B92">
+        <v>0.003683001302570745</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2">
+        <v>38626</v>
+      </c>
+      <c r="B93">
+        <v>0.01106086541882748</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2">
+        <v>38718</v>
+      </c>
+      <c r="B94">
+        <v>0.02656879232707624</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2">
+        <v>38808</v>
+      </c>
+      <c r="B95">
+        <v>-0.004017640870202253</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2">
+        <v>38899</v>
+      </c>
+      <c r="B96">
+        <v>0.00260698813328212</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2">
+        <v>38991</v>
+      </c>
+      <c r="B97">
+        <v>-0.003148170996661945</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2">
+        <v>39083</v>
+      </c>
+      <c r="B98">
+        <v>0.01080794735397209</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2">
+        <v>39173</v>
+      </c>
+      <c r="B99">
+        <v>-0.007723244155048845</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2">
+        <v>39264</v>
+      </c>
+      <c r="B100">
+        <v>-0.01435815121691583</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2">
+        <v>39356</v>
+      </c>
+      <c r="B101">
+        <v>-0.007253837107291736</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2">
+        <v>39448</v>
+      </c>
+      <c r="B102">
+        <v>-0.01775821241547767</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2">
+        <v>39539</v>
+      </c>
+      <c r="B103">
+        <v>-0.0957689321063729</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2">
+        <v>39630</v>
+      </c>
+      <c r="B104">
+        <v>0.02030718610799168</v>
       </c>
     </row>
   </sheetData>
